--- a/pred_ohlcv/54_21/2019-11-20 ENJ ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-11-20 ENJ ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>120143.2215</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>120143.2215</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -574,7 +574,7 @@
         <v>249100.6713878481</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>453504.456487848</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>453504.456487848</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>443511.459987848</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>444172.501587848</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>611852.5869051433</v>
       </c>
       <c r="H106">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>632529.4733051434</v>
       </c>
       <c r="H111">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>571376.7459051432</v>
       </c>
       <c r="H184">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>571376.7459051432</v>
       </c>
       <c r="H185">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>571376.7459051432</v>
       </c>
       <c r="H186">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>571261.5499051432</v>
       </c>
       <c r="H187">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>571261.5499051432</v>
       </c>
       <c r="H188">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>585688.1750051432</v>
       </c>
       <c r="H189">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>599424.1750051432</v>
       </c>
       <c r="H190">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>599424.1750051432</v>
       </c>
       <c r="H191">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>599424.1750051432</v>
       </c>
       <c r="H192">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>597789.9325051431</v>
       </c>
       <c r="H193">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>561974.3798051431</v>
       </c>
       <c r="H194">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>561974.3798051431</v>
       </c>
       <c r="H195">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>557708.2897051431</v>
       </c>
       <c r="H196">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>540167.9412051431</v>
       </c>
       <c r="H197">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>539776.8579051431</v>
       </c>
       <c r="H198">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>542359.785705143</v>
       </c>
       <c r="H199">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>542366.785705143</v>
       </c>
       <c r="H200">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>543575.6338051429</v>
       </c>
       <c r="H201">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>543585.6338051429</v>
       </c>
       <c r="H202">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>543585.6338051429</v>
       </c>
       <c r="H203">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -5696,7 +5696,7 @@
         <v>499031.331605143</v>
       </c>
       <c r="H204">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -5722,7 +5722,7 @@
         <v>510269.561305143</v>
       </c>
       <c r="H205">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -5748,7 +5748,7 @@
         <v>513752.047905143</v>
       </c>
       <c r="H206">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>511913.438405143</v>
       </c>
       <c r="H207">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -5800,7 +5800,7 @@
         <v>487052.128805143</v>
       </c>
       <c r="H208">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -5826,7 +5826,7 @@
         <v>485731.894105143</v>
       </c>
       <c r="H209">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>491658.724105143</v>
       </c>
       <c r="H211">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -5930,7 +5930,7 @@
         <v>494524.7479051431</v>
       </c>
       <c r="H213">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -5956,7 +5956,7 @@
         <v>495285.7788051431</v>
       </c>
       <c r="H214">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -5982,7 +5982,7 @@
         <v>418350.6122051431</v>
       </c>
       <c r="H215">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6008,7 +6008,7 @@
         <v>357870.2494051431</v>
       </c>
       <c r="H216">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="217" spans="1:8">

--- a/pred_ohlcv/54_21/2019-11-20 ENJ ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-11-20 ENJ ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>120143.2215</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>120143.2215</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>453504.456487848</v>
       </c>
       <c r="H39">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>453504.456487848</v>
       </c>
       <c r="H40">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>443511.459987848</v>
       </c>
       <c r="H42">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>444172.501587848</v>
       </c>
       <c r="H43">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>538526.4795051432</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>538640.4804051432</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>538640.4804051432</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>533794.2116051433</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>612611.6142051433</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>618979.8875051433</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>618979.8875051433</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>620053.1714051433</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>619096.7017051433</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>619096.7017051433</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>619096.7017051433</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>599572.1988051434</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>623305.9614051434</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>623305.9614051434</v>
       </c>
       <c r="H105">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>611852.5869051433</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>611852.5869051433</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>611981.5869051433</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>610917.4690051434</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>703815.5614051434</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>632529.4733051434</v>
       </c>
       <c r="H111">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>632529.4733051434</v>
       </c>
       <c r="H112">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>529037.6550051433</v>
       </c>
       <c r="H182">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>571376.7459051432</v>
       </c>
       <c r="H183">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>571376.7459051432</v>
       </c>
       <c r="H184">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>571376.7459051432</v>
       </c>
       <c r="H185">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>571376.7459051432</v>
       </c>
       <c r="H186">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>571261.5499051432</v>
       </c>
       <c r="H187">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>571261.5499051432</v>
       </c>
       <c r="H188">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>585688.1750051432</v>
       </c>
       <c r="H189">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>599424.1750051432</v>
       </c>
       <c r="H190">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>599424.1750051432</v>
       </c>
       <c r="H191">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>599424.1750051432</v>
       </c>
       <c r="H192">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>597789.9325051431</v>
       </c>
       <c r="H193">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>561974.3798051431</v>
       </c>
       <c r="H194">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>561974.3798051431</v>
       </c>
       <c r="H195">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>557708.2897051431</v>
       </c>
       <c r="H196">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>540167.9412051431</v>
       </c>
       <c r="H197">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>539776.8579051431</v>
       </c>
       <c r="H198">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>543585.6338051429</v>
       </c>
       <c r="H202">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>543585.6338051429</v>
       </c>
       <c r="H203">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -5696,7 +5696,7 @@
         <v>499031.331605143</v>
       </c>
       <c r="H204">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -5722,7 +5722,7 @@
         <v>510269.561305143</v>
       </c>
       <c r="H205">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -5748,7 +5748,7 @@
         <v>513752.047905143</v>
       </c>
       <c r="H206">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>511913.438405143</v>
       </c>
       <c r="H207">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -5800,7 +5800,7 @@
         <v>487052.128805143</v>
       </c>
       <c r="H208">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -5826,7 +5826,7 @@
         <v>485731.894105143</v>
       </c>
       <c r="H209">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>491658.724105143</v>
       </c>
       <c r="H211">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>492110.5886051431</v>
       </c>
       <c r="H212">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -5930,7 +5930,7 @@
         <v>494524.7479051431</v>
       </c>
       <c r="H213">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -5956,7 +5956,7 @@
         <v>495285.7788051431</v>
       </c>
       <c r="H214">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -5982,7 +5982,7 @@
         <v>418350.6122051431</v>
       </c>
       <c r="H215">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6008,7 +6008,7 @@
         <v>357870.2494051431</v>
       </c>
       <c r="H216">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="217" spans="1:8">
